--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Projects\Razorpay\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6279EAF9-BE1B-4DC4-9CDA-5E82682C5020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE6B0C3-5306-477C-9D74-70756640FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>API Merchants Dim Bank Account Number</t>
   </si>
@@ -145,123 +145,114 @@
     <t>state</t>
   </si>
   <si>
-    <t>006705009660</t>
-  </si>
-  <si>
-    <t>ICIC0000067</t>
-  </si>
-  <si>
-    <t>AAHCE2819F</t>
-  </si>
-  <si>
-    <t>AJVPP3691C</t>
-  </si>
-  <si>
-    <t>NXsvYA1zcq9jyL</t>
-  </si>
-  <si>
-    <t>reinitiated_bank</t>
+    <t>1.10602E+11</t>
+  </si>
+  <si>
+    <t>ICIC0001106</t>
+  </si>
+  <si>
+    <t>HTYPK6458Q</t>
+  </si>
+  <si>
+    <t>NqAZEuX2IFQLsz</t>
+  </si>
+  <si>
+    <t>qualified</t>
+  </si>
+  <si>
+    <t>NON_TPV</t>
+  </si>
+  <si>
+    <t>upi_kotak</t>
+  </si>
+  <si>
+    <t>whitelist</t>
+  </si>
+  <si>
+    <t>activated</t>
+  </si>
+  <si>
+    <t>it_and_software</t>
+  </si>
+  <si>
+    <t>DOTS</t>
+  </si>
+  <si>
+    <t>Digital goods and services Pricing policy : none , each product has different pricing</t>
+  </si>
+  <si>
+    <t>DOTS Solutions</t>
+  </si>
+  <si>
+    <t>01, Sai Sadan 02, Anand Sagar Colony Lane No 3, Near Raj Pattern Academy, Janata Raja Road, Suryanagari, Baramati</t>
+  </si>
+  <si>
+    <t>Baramati</t>
+  </si>
+  <si>
+    <t>413102</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>saas</t>
+  </si>
+  <si>
+    <t>Proprietorship</t>
+  </si>
+  <si>
+    <t>superpc60@gmail.com</t>
+  </si>
+  <si>
+    <t>8459511783</t>
+  </si>
+  <si>
+    <t>Abhijit Somnath Kokane</t>
+  </si>
+  <si>
+    <t>11/13/2022 00:00:00</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>KfTYOq6eaTV4dK</t>
+  </si>
+  <si>
+    <t>5817</t>
+  </si>
+  <si>
+    <t>https://www.websterai.com/</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>6.50014E+11</t>
+  </si>
+  <si>
+    <t>INDB0000001</t>
+  </si>
+  <si>
+    <t>AAACN4538P</t>
+  </si>
+  <si>
+    <t>ADZPP2328Q</t>
+  </si>
+  <si>
+    <t>Noss2fnwx2glyv</t>
   </si>
   <si>
     <t>TPV</t>
   </si>
   <si>
-    <t>upi_axis</t>
-  </si>
-  <si>
     <t>greylist</t>
   </si>
   <si>
-    <t>activated</t>
-  </si>
-  <si>
     <t>financial_services</t>
   </si>
   <si>
-    <t>EduFund</t>
-  </si>
-  <si>
-    <t>Empowering education savings with India's first investment app</t>
-  </si>
-  <si>
-    <t>EDUBILLIONS TECH PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>30,Adarsh society , near Bhagwati chambers,swastik cross road,navrangpura</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>380009</t>
-  </si>
-  <si>
-    <t>GJ</t>
-  </si>
-  <si>
-    <t>mutual_fund</t>
-  </si>
-  <si>
-    <t>Private_Limited</t>
-  </si>
-  <si>
-    <t>support@edufund.in</t>
-  </si>
-  <si>
-    <t>9.18451E+11</t>
-  </si>
-  <si>
-    <t>Akshay Tambe</t>
-  </si>
-  <si>
-    <t>24AAHCE2819F1ZW</t>
-  </si>
-  <si>
-    <t>01/10/2024 00:00:00</t>
-  </si>
-  <si>
-    <t>mutual_funds</t>
-  </si>
-  <si>
-    <t>12/26/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>NH0oIGqHkQZ49s</t>
-  </si>
-  <si>
-    <t>6211</t>
-  </si>
-  <si>
-    <t>https://edufund.in/</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>6.50014E+11</t>
-  </si>
-  <si>
-    <t>INDB0000001</t>
-  </si>
-  <si>
-    <t>AAACN4538P</t>
-  </si>
-  <si>
-    <t>ADZPP2328Q</t>
-  </si>
-  <si>
-    <t>Noss2fnwx2glyv</t>
-  </si>
-  <si>
-    <t>qualified</t>
-  </si>
-  <si>
-    <t>upi_kotak</t>
-  </si>
-  <si>
     <t>PIRAMAL ENTERPRISES LIMITED</t>
   </si>
   <si>
@@ -277,9 +268,6 @@
     <t>400070</t>
   </si>
   <si>
-    <t>MH</t>
-  </si>
-  <si>
     <t>lending</t>
   </si>
   <si>
@@ -311,75 +299,6 @@
   </si>
   <si>
     <t>https://www.piramalfinance.com/</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>1.10602E+11</t>
-  </si>
-  <si>
-    <t>ICIC0001106</t>
-  </si>
-  <si>
-    <t>HTYPK6458Q</t>
-  </si>
-  <si>
-    <t>NqAZEuX2IFQLsz</t>
-  </si>
-  <si>
-    <t>NON_TPV</t>
-  </si>
-  <si>
-    <t>whitelist</t>
-  </si>
-  <si>
-    <t>it_and_software</t>
-  </si>
-  <si>
-    <t>DOTS</t>
-  </si>
-  <si>
-    <t>Digital goods and services Pricing policy : none , each product has different pricing</t>
-  </si>
-  <si>
-    <t>DOTS Solutions</t>
-  </si>
-  <si>
-    <t>01, Sai Sadan 02, Anand Sagar Colony Lane No 3, Near Raj Pattern Academy, Janata Raja Road, Suryanagari, Baramati</t>
-  </si>
-  <si>
-    <t>Baramati</t>
-  </si>
-  <si>
-    <t>413102</t>
-  </si>
-  <si>
-    <t>saas</t>
-  </si>
-  <si>
-    <t>Proprietorship</t>
-  </si>
-  <si>
-    <t>superpc60@gmail.com</t>
-  </si>
-  <si>
-    <t>8459511783</t>
-  </si>
-  <si>
-    <t>Abhijit Somnath Kokane</t>
-  </si>
-  <si>
-    <t>11/13/2022 00:00:00</t>
-  </si>
-  <si>
-    <t>KfTYOq6eaTV4dK</t>
-  </si>
-  <si>
-    <t>5817</t>
-  </si>
-  <si>
-    <t>https://www.websterai.com/</t>
   </si>
 </sst>
 </file>
@@ -745,7 +664,7 @@
   <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +685,7 @@
     <col min="14" max="14" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="80.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="97.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="36" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="35.44140625" bestFit="1" customWidth="1"/>
@@ -925,321 +844,315 @@
       <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>54</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>55</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>56</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>57</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" t="s">
         <v>58</v>
       </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>62</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AH2" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK2" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>65</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>66</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>68</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
         <v>75</v>
       </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
         <v>76</v>
       </c>
-      <c r="G3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>78</v>
       </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="Q3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="S3" t="s">
         <v>80</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W3" t="s">
         <v>80</v>
       </c>
-      <c r="R3" t="s">
+      <c r="X3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" t="s">
         <v>82</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AA3" t="s">
         <v>83</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AB3" t="s">
         <v>84</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AC3" t="s">
         <v>85</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AD3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI3" t="s">
         <v>82</v>
       </c>
-      <c r="W3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AJ3" t="s">
         <v>89</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AK3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL3" t="s">
         <v>90</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AM3" t="s">
         <v>91</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AN3" t="s">
         <v>92</v>
       </c>
-      <c r="AI3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AO3" t="s">
         <v>68</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="M4" t="s">
-        <v>104</v>
-      </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="R4" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="S4" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="Z4" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="AA4" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="AB4" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="AC4" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="AD4" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="AH4" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="AI4" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO4" t="s">
         <v>68</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +434,438 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ADDRESS</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AggregatorCode</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>B2bFlag</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BankName</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CITY</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CurrentAccountA/CNo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DeviationBr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DeviationOther</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DeviationRemarks</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Deviations</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DeviationsAgreement</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DeviationsKyc</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Director/Partner</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>GSTN</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>IFSCCode</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>LANDMARK</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LandlineNO</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MCCDesc</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>MarketingName</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>MerchantCategory</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>MerchantIdentifier</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>MerchantOfficialID</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>MerchantType</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MerchantTypeScale</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>MerchantWebsite</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>MobileNO</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>OwnerName</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>OwnershipType</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>PAN</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>PINCODE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>PoolAccountA/CNo</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>PoolIfscCode</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>StoreId</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>TerminalId</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>ThroughPut</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>TypeofIntegration</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>VPA</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>30,Adarsh society , near Bhagwati chambers,swastik cross road,navrangpura</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RAZORPPROD4264718195</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AxisBank</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ahmedabad</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>917020041206002</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>24AAHCE2819F1ZW</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>utib0001507</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Ahmedabad</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>9.18E+11</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>6211</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Securities brokers and dealers</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>EduFund</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>NH0oIGqHkQZ49s</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>special-bankingops@razorpay.com</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Sub Merchant</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>https://edufund.in/</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>9.18E+11</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>EDUBILLIONS TECH PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>AAHCE2819F</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>380009</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>1000129101465</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>utib0000100</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>v2</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>SAVINGS,CURRENT</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>NH0oIGqHkQZ49s</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>NH0oIGqHkQZ49s</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Tpv, Web</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>edufundsnp.rzp@axisbank</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>mutual funds</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
